--- a/02-Avancado1-Funcoes/01-RevisaoExcelEssencial/Aula-08-ExcelAvancado1-Revisao-CopiaRelativa.xlsx
+++ b/02-Avancado1-Funcoes/01-RevisaoExcelEssencial/Aula-08-ExcelAvancado1-Revisao-CopiaRelativa.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robson.svaamonde\Downloads\msexcel\02-Avancado1-Funcoes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robson.svaamonde\Downloads\msexcel\02-Avancado1-Funcoes\01-RevisaoExcelEssencial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18008960-A73B-4ED8-8CFF-84C9F2EEC975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD951B6B-7DE4-41F3-84BA-517D7FB97448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cópia Relativa" sheetId="1" r:id="rId1"/>
@@ -278,7 +278,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color indexed="63"/>
@@ -349,12 +349,6 @@
       <sz val="16"/>
       <color indexed="63"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
@@ -474,25 +468,25 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1180,96 +1174,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="3" width="8.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" customWidth="1"/>
-    <col min="13" max="20" width="9.140625" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" hidden="1"/>
+    <col min="11" max="11" width="14.88671875" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" customWidth="1"/>
+    <col min="13" max="20" width="9.109375" customWidth="1"/>
+    <col min="21" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="14" customFormat="1" ht="14.25">
-      <c r="A1" s="13"/>
-    </row>
-    <row r="2" spans="1:12" s="14" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B2" s="15" t="s">
+    <row r="1" spans="1:12" s="13" customFormat="1" ht="13.8">
+      <c r="A1" s="12"/>
+    </row>
+    <row r="2" spans="1:12" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-    </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-    </row>
-    <row r="4" spans="1:12" s="14" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-    </row>
-    <row r="5" spans="1:12" s="14" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-    </row>
-    <row r="6" spans="1:12" s="14" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+    </row>
+    <row r="3" spans="1:12" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="1:12" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+    </row>
+    <row r="5" spans="1:12" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+    </row>
+    <row r="6" spans="1:12" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12">
       <c r="B7" s="9"/>
@@ -1284,7 +1278,7 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:12" ht="31.5">
+    <row r="8" spans="1:12" ht="31.2">
       <c r="B8" s="16" t="s">
         <v>0</v>
       </c>
@@ -1419,13 +1413,13 @@
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="2:3" ht="21">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="8"/>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="8"/>
@@ -1434,25 +1428,25 @@
       <c r="C19" s="8"/>
     </row>
     <row r="20" spans="2:3" ht="21">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="8"/>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="8"/>
     </row>
     <row r="22" spans="2:3"/>
     <row r="23" spans="2:3" ht="21">
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="14" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1475,55 +1469,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F708D4-FB19-475D-B15E-12FA291FBFD7}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="13" width="9.140625" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
+    <col min="6" max="13" width="9.109375" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="14" customFormat="1" ht="14.25">
-      <c r="A1" s="13"/>
-    </row>
-    <row r="2" spans="1:5" s="14" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B2" s="19" t="s">
+    <row r="1" spans="1:5" s="13" customFormat="1" ht="13.8">
+      <c r="A1" s="12"/>
+    </row>
+    <row r="2" spans="1:5" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-    </row>
-    <row r="3" spans="1:5" s="14" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-    </row>
-    <row r="4" spans="1:5" s="14" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-    </row>
-    <row r="5" spans="1:5" s="14" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-    </row>
-    <row r="6" spans="1:5" s="14" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:5" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+    </row>
+    <row r="4" spans="1:5" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+    </row>
+    <row r="5" spans="1:5" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" spans="1:5" s="13" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:5">
       <c r="B7" s="10"/>
@@ -1597,12 +1591,12 @@
     </row>
     <row r="14" spans="1:5"/>
     <row r="15" spans="1:5">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:5">
       <c r="B16" s="1" t="s">
@@ -1728,7 +1722,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:5"/>
+    <row r="26" spans="2:5">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="2:5"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:E6"/>
